--- a/output/sites/clustering with all nutrients/clust_all_nut_compo_sites.xlsx
+++ b/output/sites/clustering with all nutrients/clust_all_nut_compo_sites.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">site</t>
   </si>
@@ -26,40 +26,58 @@
     <t xml:space="preserve">clust_ratio</t>
   </si>
   <si>
+    <t xml:space="preserve">mean_Fe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_Zn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_Cu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_Mn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_Se</t>
+  </si>
+  <si>
     <t xml:space="preserve">mean_Co</t>
   </si>
   <si>
-    <t xml:space="preserve">mean_Cu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_Fe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_Mn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_Se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_Zn</t>
+    <t xml:space="preserve">median_Fe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">median_Zn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">median_Cu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">median_Mn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">median_Se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">median_Co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_Fe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_Zn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_Cu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_Mn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_Se</t>
   </si>
   <si>
     <t xml:space="preserve">sd_Co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_Cu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_Fe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_Mn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_Se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_Zn</t>
   </si>
   <si>
     <t xml:space="preserve">Cap Noir</t>
@@ -446,10 +464,28 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -461,13 +497,13 @@
         <v>25.9</v>
       </c>
       <c r="E2" t="n">
-        <v>0.583</v>
+        <v>734.259</v>
       </c>
       <c r="F2" t="n">
+        <v>587.195</v>
+      </c>
+      <c r="G2" t="n">
         <v>106.21</v>
-      </c>
-      <c r="G2" t="n">
-        <v>734.259</v>
       </c>
       <c r="H2" t="n">
         <v>44.993</v>
@@ -476,30 +512,48 @@
         <v>16.071</v>
       </c>
       <c r="J2" t="n">
-        <v>587.195</v>
+        <v>0.583</v>
       </c>
       <c r="K2" t="n">
+        <v>322.977</v>
+      </c>
+      <c r="L2" t="n">
+        <v>435.684</v>
+      </c>
+      <c r="M2" t="n">
+        <v>76.28</v>
+      </c>
+      <c r="N2" t="n">
+        <v>22.451</v>
+      </c>
+      <c r="O2" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>918.282</v>
+      </c>
+      <c r="R2" t="n">
+        <v>318.693</v>
+      </c>
+      <c r="S2" t="n">
+        <v>98.338</v>
+      </c>
+      <c r="T2" t="n">
+        <v>54.266</v>
+      </c>
+      <c r="U2" t="n">
+        <v>13.899</v>
+      </c>
+      <c r="V2" t="n">
         <v>0.585</v>
-      </c>
-      <c r="L2" t="n">
-        <v>98.338</v>
-      </c>
-      <c r="M2" t="n">
-        <v>918.282</v>
-      </c>
-      <c r="N2" t="n">
-        <v>54.266</v>
-      </c>
-      <c r="O2" t="n">
-        <v>13.899</v>
-      </c>
-      <c r="P2" t="n">
-        <v>318.693</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -511,13 +565,13 @@
         <v>37</v>
       </c>
       <c r="E3" t="n">
-        <v>6.596</v>
+        <v>8512.157</v>
       </c>
       <c r="F3" t="n">
+        <v>472.372</v>
+      </c>
+      <c r="G3" t="n">
         <v>286.031</v>
-      </c>
-      <c r="G3" t="n">
-        <v>8512.157</v>
       </c>
       <c r="H3" t="n">
         <v>129.883</v>
@@ -526,30 +580,48 @@
         <v>35.409</v>
       </c>
       <c r="J3" t="n">
-        <v>472.372</v>
+        <v>6.596</v>
       </c>
       <c r="K3" t="n">
+        <v>7724.266</v>
+      </c>
+      <c r="L3" t="n">
+        <v>530.447</v>
+      </c>
+      <c r="M3" t="n">
+        <v>193.435</v>
+      </c>
+      <c r="N3" t="n">
+        <v>133.266</v>
+      </c>
+      <c r="O3" t="n">
+        <v>27.356</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6.078</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4447.689</v>
+      </c>
+      <c r="R3" t="n">
+        <v>178.353</v>
+      </c>
+      <c r="S3" t="n">
+        <v>226.259</v>
+      </c>
+      <c r="T3" t="n">
+        <v>46.697</v>
+      </c>
+      <c r="U3" t="n">
+        <v>19.092</v>
+      </c>
+      <c r="V3" t="n">
         <v>3.285</v>
-      </c>
-      <c r="L3" t="n">
-        <v>226.259</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4447.689</v>
-      </c>
-      <c r="N3" t="n">
-        <v>46.697</v>
-      </c>
-      <c r="O3" t="n">
-        <v>19.092</v>
-      </c>
-      <c r="P3" t="n">
-        <v>178.353</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -561,13 +633,13 @@
         <v>22.2</v>
       </c>
       <c r="E4" t="n">
-        <v>2.102</v>
+        <v>1993.502</v>
       </c>
       <c r="F4" t="n">
+        <v>562.008</v>
+      </c>
+      <c r="G4" t="n">
         <v>356.281</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1993.502</v>
       </c>
       <c r="H4" t="n">
         <v>50.248</v>
@@ -576,30 +648,48 @@
         <v>37.316</v>
       </c>
       <c r="J4" t="n">
-        <v>562.008</v>
+        <v>2.102</v>
       </c>
       <c r="K4" t="n">
+        <v>2073.572</v>
+      </c>
+      <c r="L4" t="n">
+        <v>576.475</v>
+      </c>
+      <c r="M4" t="n">
+        <v>238.603</v>
+      </c>
+      <c r="N4" t="n">
+        <v>50.161</v>
+      </c>
+      <c r="O4" t="n">
+        <v>39.681</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.758</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>577.605</v>
+      </c>
+      <c r="R4" t="n">
+        <v>134.288</v>
+      </c>
+      <c r="S4" t="n">
+        <v>219.744</v>
+      </c>
+      <c r="T4" t="n">
+        <v>15.567</v>
+      </c>
+      <c r="U4" t="n">
+        <v>14.323</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.297</v>
-      </c>
-      <c r="L4" t="n">
-        <v>219.744</v>
-      </c>
-      <c r="M4" t="n">
-        <v>577.605</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15.567</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14.323</v>
-      </c>
-      <c r="P4" t="n">
-        <v>134.288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -611,13 +701,13 @@
         <v>14.8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.348</v>
+        <v>215.956</v>
       </c>
       <c r="F5" t="n">
+        <v>180.555</v>
+      </c>
+      <c r="G5" t="n">
         <v>415.994</v>
-      </c>
-      <c r="G5" t="n">
-        <v>215.956</v>
       </c>
       <c r="H5" t="n">
         <v>15.795</v>
@@ -626,30 +716,48 @@
         <v>88.946</v>
       </c>
       <c r="J5" t="n">
-        <v>180.555</v>
+        <v>0.348</v>
       </c>
       <c r="K5" t="n">
+        <v>233.248</v>
+      </c>
+      <c r="L5" t="n">
+        <v>105.864</v>
+      </c>
+      <c r="M5" t="n">
+        <v>346.17</v>
+      </c>
+      <c r="N5" t="n">
+        <v>16.106</v>
+      </c>
+      <c r="O5" t="n">
+        <v>85.952</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>45.723</v>
+      </c>
+      <c r="R5" t="n">
+        <v>169.632</v>
+      </c>
+      <c r="S5" t="n">
+        <v>203.898</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.357</v>
+      </c>
+      <c r="U5" t="n">
+        <v>31.916</v>
+      </c>
+      <c r="V5" t="n">
         <v>0.281</v>
-      </c>
-      <c r="L5" t="n">
-        <v>203.898</v>
-      </c>
-      <c r="M5" t="n">
-        <v>45.723</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.357</v>
-      </c>
-      <c r="O5" t="n">
-        <v>31.916</v>
-      </c>
-      <c r="P5" t="n">
-        <v>169.632</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -661,13 +769,13 @@
         <v>27.6</v>
       </c>
       <c r="E6" t="n">
-        <v>0.489</v>
+        <v>317.444</v>
       </c>
       <c r="F6" t="n">
+        <v>315.246</v>
+      </c>
+      <c r="G6" t="n">
         <v>23.519</v>
-      </c>
-      <c r="G6" t="n">
-        <v>317.444</v>
       </c>
       <c r="H6" t="n">
         <v>18.59</v>
@@ -676,30 +784,48 @@
         <v>7.441</v>
       </c>
       <c r="J6" t="n">
-        <v>315.246</v>
+        <v>0.489</v>
       </c>
       <c r="K6" t="n">
+        <v>301.514</v>
+      </c>
+      <c r="L6" t="n">
+        <v>261.127</v>
+      </c>
+      <c r="M6" t="n">
+        <v>19.217</v>
+      </c>
+      <c r="N6" t="n">
+        <v>16.145</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6.835</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>70.435</v>
+      </c>
+      <c r="R6" t="n">
+        <v>97.888</v>
+      </c>
+      <c r="S6" t="n">
+        <v>12.374</v>
+      </c>
+      <c r="T6" t="n">
+        <v>4.885</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.358</v>
+      </c>
+      <c r="V6" t="n">
         <v>0.095</v>
-      </c>
-      <c r="L6" t="n">
-        <v>12.374</v>
-      </c>
-      <c r="M6" t="n">
-        <v>70.435</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4.885</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.358</v>
-      </c>
-      <c r="P6" t="n">
-        <v>97.888</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
@@ -711,13 +837,13 @@
         <v>41.4</v>
       </c>
       <c r="E7" t="n">
-        <v>6.036</v>
+        <v>7749.552</v>
       </c>
       <c r="F7" t="n">
+        <v>448.418</v>
+      </c>
+      <c r="G7" t="n">
         <v>196.718</v>
-      </c>
-      <c r="G7" t="n">
-        <v>7749.552</v>
       </c>
       <c r="H7" t="n">
         <v>202.406</v>
@@ -726,30 +852,48 @@
         <v>37.14</v>
       </c>
       <c r="J7" t="n">
-        <v>448.418</v>
+        <v>6.036</v>
       </c>
       <c r="K7" t="n">
+        <v>8992.151</v>
+      </c>
+      <c r="L7" t="n">
+        <v>384.839</v>
+      </c>
+      <c r="M7" t="n">
+        <v>169.117</v>
+      </c>
+      <c r="N7" t="n">
+        <v>210.665</v>
+      </c>
+      <c r="O7" t="n">
+        <v>36.289</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6.838</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4167.817</v>
+      </c>
+      <c r="R7" t="n">
+        <v>279.825</v>
+      </c>
+      <c r="S7" t="n">
+        <v>125.596</v>
+      </c>
+      <c r="T7" t="n">
+        <v>121.37</v>
+      </c>
+      <c r="U7" t="n">
+        <v>20.983</v>
+      </c>
+      <c r="V7" t="n">
         <v>3.113</v>
-      </c>
-      <c r="L7" t="n">
-        <v>125.596</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4167.817</v>
-      </c>
-      <c r="N7" t="n">
-        <v>121.37</v>
-      </c>
-      <c r="O7" t="n">
-        <v>20.983</v>
-      </c>
-      <c r="P7" t="n">
-        <v>279.825</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B8" t="n">
         <v>3</v>
@@ -761,13 +905,13 @@
         <v>31</v>
       </c>
       <c r="E8" t="n">
-        <v>0.557</v>
+        <v>517.737</v>
       </c>
       <c r="F8" t="n">
+        <v>269.809</v>
+      </c>
+      <c r="G8" t="n">
         <v>68.111</v>
-      </c>
-      <c r="G8" t="n">
-        <v>517.737</v>
       </c>
       <c r="H8" t="n">
         <v>21.217</v>
@@ -776,25 +920,43 @@
         <v>23.206</v>
       </c>
       <c r="J8" t="n">
-        <v>269.809</v>
+        <v>0.557</v>
       </c>
       <c r="K8" t="n">
+        <v>297.772</v>
+      </c>
+      <c r="L8" t="n">
+        <v>326.674</v>
+      </c>
+      <c r="M8" t="n">
+        <v>60.215</v>
+      </c>
+      <c r="N8" t="n">
+        <v>19.951</v>
+      </c>
+      <c r="O8" t="n">
+        <v>18.694</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>567.99</v>
+      </c>
+      <c r="R8" t="n">
+        <v>140.061</v>
+      </c>
+      <c r="S8" t="n">
+        <v>33.651</v>
+      </c>
+      <c r="T8" t="n">
+        <v>6.269</v>
+      </c>
+      <c r="U8" t="n">
+        <v>10.472</v>
+      </c>
+      <c r="V8" t="n">
         <v>0.35</v>
-      </c>
-      <c r="L8" t="n">
-        <v>33.651</v>
-      </c>
-      <c r="M8" t="n">
-        <v>567.99</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6.269</v>
-      </c>
-      <c r="O8" t="n">
-        <v>10.472</v>
-      </c>
-      <c r="P8" t="n">
-        <v>140.061</v>
       </c>
     </row>
   </sheetData>

--- a/output/sites/clustering with all nutrients/clust_all_nut_compo_sites.xlsx
+++ b/output/sites/clustering with all nutrients/clust_all_nut_compo_sites.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">site</t>
   </si>
@@ -26,6 +26,9 @@
     <t xml:space="preserve">clust_ratio</t>
   </si>
   <si>
+    <t xml:space="preserve">mean_P</t>
+  </si>
+  <si>
     <t xml:space="preserve">mean_Fe</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
     <t xml:space="preserve">mean_Co</t>
   </si>
   <si>
+    <t xml:space="preserve">median_P</t>
+  </si>
+  <si>
     <t xml:space="preserve">median_Fe</t>
   </si>
   <si>
@@ -60,6 +66,9 @@
   </si>
   <si>
     <t xml:space="preserve">median_Co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_P</t>
   </si>
   <si>
     <t xml:space="preserve">sd_Fe</t>
@@ -482,10 +491,19 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -497,63 +515,72 @@
         <v>25.9</v>
       </c>
       <c r="E2" t="n">
-        <v>734.259</v>
+        <v>102176.534</v>
       </c>
       <c r="F2" t="n">
-        <v>587.195</v>
+        <v>709.01</v>
       </c>
       <c r="G2" t="n">
-        <v>106.21</v>
+        <v>493.959</v>
       </c>
       <c r="H2" t="n">
-        <v>44.993</v>
+        <v>94.757</v>
       </c>
       <c r="I2" t="n">
-        <v>16.071</v>
+        <v>25.14</v>
       </c>
       <c r="J2" t="n">
-        <v>0.583</v>
+        <v>11.907</v>
       </c>
       <c r="K2" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="L2" t="n">
+        <v>113673.516</v>
+      </c>
+      <c r="M2" t="n">
         <v>322.977</v>
       </c>
-      <c r="L2" t="n">
-        <v>435.684</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>398.001</v>
+      </c>
+      <c r="O2" t="n">
         <v>76.28</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>22.451</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>11.58</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>0.501</v>
       </c>
-      <c r="Q2" t="n">
-        <v>918.282</v>
-      </c>
-      <c r="R2" t="n">
-        <v>318.693</v>
-      </c>
       <c r="S2" t="n">
-        <v>98.338</v>
+        <v>27059.536</v>
       </c>
       <c r="T2" t="n">
-        <v>54.266</v>
+        <v>907.112</v>
       </c>
       <c r="U2" t="n">
-        <v>13.899</v>
+        <v>269.344</v>
       </c>
       <c r="V2" t="n">
-        <v>0.585</v>
+        <v>77.996</v>
+      </c>
+      <c r="W2" t="n">
+        <v>9.389</v>
+      </c>
+      <c r="X2" t="n">
+        <v>6.436</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.251</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -565,398 +592,452 @@
         <v>37</v>
       </c>
       <c r="E3" t="n">
+        <v>26999.6</v>
+      </c>
+      <c r="F3" t="n">
         <v>8512.157</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>472.372</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>286.031</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>129.883</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>35.409</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>6.596</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
+        <v>19597.558</v>
+      </c>
+      <c r="M3" t="n">
         <v>7724.266</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>530.447</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>193.435</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>133.266</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>27.356</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>6.078</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
+        <v>21725.527</v>
+      </c>
+      <c r="T3" t="n">
         <v>4447.689</v>
       </c>
-      <c r="R3" t="n">
+      <c r="U3" t="n">
         <v>178.353</v>
       </c>
-      <c r="S3" t="n">
+      <c r="V3" t="n">
         <v>226.259</v>
       </c>
-      <c r="T3" t="n">
+      <c r="W3" t="n">
         <v>46.697</v>
       </c>
-      <c r="U3" t="n">
+      <c r="X3" t="n">
         <v>19.092</v>
       </c>
-      <c r="V3" t="n">
+      <c r="Y3" t="n">
         <v>3.285</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>22.2</v>
+        <v>25.9</v>
       </c>
       <c r="E4" t="n">
-        <v>1993.502</v>
+        <v>16149.785</v>
       </c>
       <c r="F4" t="n">
-        <v>562.008</v>
+        <v>1768.053</v>
       </c>
       <c r="G4" t="n">
-        <v>356.281</v>
+        <v>589.943</v>
       </c>
       <c r="H4" t="n">
-        <v>50.248</v>
+        <v>354.126</v>
       </c>
       <c r="I4" t="n">
-        <v>37.316</v>
+        <v>65.295</v>
       </c>
       <c r="J4" t="n">
-        <v>2.102</v>
+        <v>44.353</v>
       </c>
       <c r="K4" t="n">
-        <v>2073.572</v>
+        <v>2.079</v>
       </c>
       <c r="L4" t="n">
-        <v>576.475</v>
+        <v>10220.335</v>
       </c>
       <c r="M4" t="n">
-        <v>238.603</v>
+        <v>2019.078</v>
       </c>
       <c r="N4" t="n">
-        <v>50.161</v>
+        <v>586.66</v>
       </c>
       <c r="O4" t="n">
-        <v>39.681</v>
+        <v>261.025</v>
       </c>
       <c r="P4" t="n">
-        <v>1.758</v>
+        <v>51.078</v>
       </c>
       <c r="Q4" t="n">
-        <v>577.605</v>
+        <v>44.183</v>
       </c>
       <c r="R4" t="n">
-        <v>134.288</v>
+        <v>1.798</v>
       </c>
       <c r="S4" t="n">
-        <v>219.744</v>
+        <v>13071.619</v>
       </c>
       <c r="T4" t="n">
-        <v>15.567</v>
+        <v>823.076</v>
       </c>
       <c r="U4" t="n">
-        <v>14.323</v>
+        <v>270.736</v>
       </c>
       <c r="V4" t="n">
-        <v>1.297</v>
+        <v>196.207</v>
+      </c>
+      <c r="W4" t="n">
+        <v>47.746</v>
+      </c>
+      <c r="X4" t="n">
+        <v>10.283</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>14.8</v>
+        <v>11.1</v>
       </c>
       <c r="E5" t="n">
-        <v>215.956</v>
+        <v>12306.656</v>
       </c>
       <c r="F5" t="n">
-        <v>180.555</v>
+        <v>208.404</v>
       </c>
       <c r="G5" t="n">
-        <v>415.994</v>
+        <v>205.772</v>
       </c>
       <c r="H5" t="n">
-        <v>15.795</v>
+        <v>467.651</v>
       </c>
       <c r="I5" t="n">
-        <v>88.946</v>
+        <v>15.522</v>
       </c>
       <c r="J5" t="n">
-        <v>0.348</v>
+        <v>99.452</v>
       </c>
       <c r="K5" t="n">
-        <v>233.248</v>
+        <v>0.211</v>
       </c>
       <c r="L5" t="n">
-        <v>105.864</v>
+        <v>12601.589</v>
       </c>
       <c r="M5" t="n">
-        <v>346.17</v>
+        <v>227.884</v>
       </c>
       <c r="N5" t="n">
-        <v>16.106</v>
+        <v>106.824</v>
       </c>
       <c r="O5" t="n">
-        <v>85.952</v>
+        <v>391.766</v>
       </c>
       <c r="P5" t="n">
-        <v>0.252</v>
+        <v>15.598</v>
       </c>
       <c r="Q5" t="n">
-        <v>45.723</v>
+        <v>103.808</v>
       </c>
       <c r="R5" t="n">
-        <v>169.632</v>
+        <v>0.25</v>
       </c>
       <c r="S5" t="n">
-        <v>203.898</v>
+        <v>7382.222</v>
       </c>
       <c r="T5" t="n">
-        <v>2.357</v>
+        <v>52.856</v>
       </c>
       <c r="U5" t="n">
-        <v>31.916</v>
+        <v>198.361</v>
       </c>
       <c r="V5" t="n">
-        <v>0.281</v>
+        <v>215.293</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2.808</v>
+      </c>
+      <c r="X5" t="n">
+        <v>29.422</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.071</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>27.6</v>
+        <v>34.5</v>
       </c>
       <c r="E6" t="n">
-        <v>317.444</v>
+        <v>110452.318</v>
       </c>
       <c r="F6" t="n">
-        <v>315.246</v>
+        <v>305.278</v>
       </c>
       <c r="G6" t="n">
-        <v>23.519</v>
+        <v>315.733</v>
       </c>
       <c r="H6" t="n">
-        <v>18.59</v>
+        <v>27.459</v>
       </c>
       <c r="I6" t="n">
-        <v>7.441</v>
+        <v>18.822</v>
       </c>
       <c r="J6" t="n">
-        <v>0.489</v>
+        <v>9.332</v>
       </c>
       <c r="K6" t="n">
-        <v>301.514</v>
+        <v>0.479</v>
       </c>
       <c r="L6" t="n">
-        <v>261.127</v>
+        <v>117710.229</v>
       </c>
       <c r="M6" t="n">
-        <v>19.217</v>
+        <v>288.49</v>
       </c>
       <c r="N6" t="n">
-        <v>16.145</v>
+        <v>279.906</v>
       </c>
       <c r="O6" t="n">
-        <v>6.835</v>
+        <v>19.797</v>
       </c>
       <c r="P6" t="n">
+        <v>17.859</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7.634</v>
+      </c>
+      <c r="R6" t="n">
         <v>0.505</v>
       </c>
-      <c r="Q6" t="n">
-        <v>70.435</v>
-      </c>
-      <c r="R6" t="n">
-        <v>97.888</v>
-      </c>
       <c r="S6" t="n">
-        <v>12.374</v>
+        <v>21627.218</v>
       </c>
       <c r="T6" t="n">
-        <v>4.885</v>
+        <v>69.95</v>
       </c>
       <c r="U6" t="n">
-        <v>1.358</v>
+        <v>86.88</v>
       </c>
       <c r="V6" t="n">
-        <v>0.095</v>
+        <v>13.756</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4.337</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4.187</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.107</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>41.4</v>
+        <v>48.3</v>
       </c>
       <c r="E7" t="n">
-        <v>7749.552</v>
+        <v>23936.879</v>
       </c>
       <c r="F7" t="n">
-        <v>448.418</v>
+        <v>6843.513</v>
       </c>
       <c r="G7" t="n">
-        <v>196.718</v>
+        <v>423.481</v>
       </c>
       <c r="H7" t="n">
-        <v>202.406</v>
+        <v>179.325</v>
       </c>
       <c r="I7" t="n">
-        <v>37.14</v>
+        <v>177.809</v>
       </c>
       <c r="J7" t="n">
-        <v>6.036</v>
+        <v>34.8</v>
       </c>
       <c r="K7" t="n">
-        <v>8992.151</v>
+        <v>5.327</v>
       </c>
       <c r="L7" t="n">
-        <v>384.839</v>
+        <v>16781.135</v>
       </c>
       <c r="M7" t="n">
-        <v>169.117</v>
+        <v>7496.46</v>
       </c>
       <c r="N7" t="n">
-        <v>210.665</v>
+        <v>345.057</v>
       </c>
       <c r="O7" t="n">
-        <v>36.289</v>
+        <v>154.624</v>
       </c>
       <c r="P7" t="n">
-        <v>6.838</v>
+        <v>175.608</v>
       </c>
       <c r="Q7" t="n">
-        <v>4167.817</v>
+        <v>33.575</v>
       </c>
       <c r="R7" t="n">
-        <v>279.825</v>
+        <v>6.147</v>
       </c>
       <c r="S7" t="n">
-        <v>125.596</v>
+        <v>16241.445</v>
       </c>
       <c r="T7" t="n">
-        <v>121.37</v>
+        <v>4475.689</v>
       </c>
       <c r="U7" t="n">
-        <v>20.983</v>
+        <v>268.038</v>
       </c>
       <c r="V7" t="n">
-        <v>3.113</v>
+        <v>123.838</v>
+      </c>
+      <c r="W7" t="n">
+        <v>127.96</v>
+      </c>
+      <c r="X7" t="n">
+        <v>20.244</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3.384</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="n">
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>17.2</v>
       </c>
       <c r="E8" t="n">
-        <v>517.737</v>
+        <v>19128.34</v>
       </c>
       <c r="F8" t="n">
-        <v>269.809</v>
+        <v>266.372</v>
       </c>
       <c r="G8" t="n">
-        <v>68.111</v>
+        <v>249.043</v>
       </c>
       <c r="H8" t="n">
-        <v>21.217</v>
+        <v>75.325</v>
       </c>
       <c r="I8" t="n">
-        <v>23.206</v>
+        <v>18.2</v>
       </c>
       <c r="J8" t="n">
-        <v>0.557</v>
+        <v>26.708</v>
       </c>
       <c r="K8" t="n">
-        <v>297.772</v>
+        <v>0.399</v>
       </c>
       <c r="L8" t="n">
+        <v>6676.001</v>
+      </c>
+      <c r="M8" t="n">
+        <v>209.627</v>
+      </c>
+      <c r="N8" t="n">
         <v>326.674</v>
       </c>
-      <c r="M8" t="n">
-        <v>60.215</v>
-      </c>
-      <c r="N8" t="n">
-        <v>19.951</v>
-      </c>
       <c r="O8" t="n">
-        <v>18.694</v>
+        <v>67.169</v>
       </c>
       <c r="P8" t="n">
-        <v>0.52</v>
+        <v>19.73</v>
       </c>
       <c r="Q8" t="n">
-        <v>567.99</v>
+        <v>28.549</v>
       </c>
       <c r="R8" t="n">
-        <v>140.061</v>
+        <v>0.435</v>
       </c>
       <c r="S8" t="n">
-        <v>33.651</v>
+        <v>24845.357</v>
       </c>
       <c r="T8" t="n">
-        <v>6.269</v>
+        <v>202.103</v>
       </c>
       <c r="U8" t="n">
-        <v>10.472</v>
+        <v>179.514</v>
       </c>
       <c r="V8" t="n">
-        <v>0.35</v>
+        <v>41.895</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5.048</v>
+      </c>
+      <c r="X8" t="n">
+        <v>13.213</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.233</v>
       </c>
     </row>
   </sheetData>

--- a/output/sites/clustering with all nutrients/clust_all_nut_compo_sites.xlsx
+++ b/output/sites/clustering with all nutrients/clust_all_nut_compo_sites.xlsx
@@ -586,73 +586,73 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="E3" t="n">
-        <v>26999.6</v>
+        <v>22532.029</v>
       </c>
       <c r="F3" t="n">
-        <v>8512.157</v>
+        <v>5735.173</v>
       </c>
       <c r="G3" t="n">
-        <v>472.372</v>
+        <v>520.784</v>
       </c>
       <c r="H3" t="n">
-        <v>286.031</v>
+        <v>314.07</v>
       </c>
       <c r="I3" t="n">
-        <v>129.883</v>
+        <v>103.288</v>
       </c>
       <c r="J3" t="n">
-        <v>35.409</v>
+        <v>39.092</v>
       </c>
       <c r="K3" t="n">
-        <v>6.596</v>
+        <v>4.736</v>
       </c>
       <c r="L3" t="n">
-        <v>19597.558</v>
+        <v>12990.3</v>
       </c>
       <c r="M3" t="n">
-        <v>7724.266</v>
+        <v>4315.638</v>
       </c>
       <c r="N3" t="n">
-        <v>530.447</v>
+        <v>544.624</v>
       </c>
       <c r="O3" t="n">
-        <v>193.435</v>
+        <v>241.627</v>
       </c>
       <c r="P3" t="n">
-        <v>133.266</v>
+        <v>90.469</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.356</v>
+        <v>36.215</v>
       </c>
       <c r="R3" t="n">
-        <v>6.078</v>
+        <v>4.089</v>
       </c>
       <c r="S3" t="n">
-        <v>21725.527</v>
+        <v>18970.228</v>
       </c>
       <c r="T3" t="n">
-        <v>4447.689</v>
+        <v>4804.847</v>
       </c>
       <c r="U3" t="n">
-        <v>178.353</v>
+        <v>221.217</v>
       </c>
       <c r="V3" t="n">
-        <v>226.259</v>
+        <v>210.775</v>
       </c>
       <c r="W3" t="n">
-        <v>46.697</v>
+        <v>56.17</v>
       </c>
       <c r="X3" t="n">
-        <v>19.092</v>
+        <v>16.287</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.285</v>
+        <v>3.439</v>
       </c>
     </row>
     <row r="4">
@@ -663,150 +663,150 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>25.9</v>
+        <v>11.1</v>
       </c>
       <c r="E4" t="n">
-        <v>16149.785</v>
+        <v>12306.656</v>
       </c>
       <c r="F4" t="n">
-        <v>1768.053</v>
+        <v>208.404</v>
       </c>
       <c r="G4" t="n">
-        <v>589.943</v>
+        <v>205.772</v>
       </c>
       <c r="H4" t="n">
-        <v>354.126</v>
+        <v>467.651</v>
       </c>
       <c r="I4" t="n">
-        <v>65.295</v>
+        <v>15.522</v>
       </c>
       <c r="J4" t="n">
-        <v>44.353</v>
+        <v>99.452</v>
       </c>
       <c r="K4" t="n">
-        <v>2.079</v>
+        <v>0.211</v>
       </c>
       <c r="L4" t="n">
-        <v>10220.335</v>
+        <v>12601.589</v>
       </c>
       <c r="M4" t="n">
-        <v>2019.078</v>
+        <v>227.884</v>
       </c>
       <c r="N4" t="n">
-        <v>586.66</v>
+        <v>106.824</v>
       </c>
       <c r="O4" t="n">
-        <v>261.025</v>
+        <v>391.766</v>
       </c>
       <c r="P4" t="n">
-        <v>51.078</v>
+        <v>15.598</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.183</v>
+        <v>103.808</v>
       </c>
       <c r="R4" t="n">
-        <v>1.798</v>
+        <v>0.25</v>
       </c>
       <c r="S4" t="n">
-        <v>13071.619</v>
+        <v>7382.222</v>
       </c>
       <c r="T4" t="n">
-        <v>823.076</v>
+        <v>52.856</v>
       </c>
       <c r="U4" t="n">
-        <v>270.736</v>
+        <v>198.361</v>
       </c>
       <c r="V4" t="n">
-        <v>196.207</v>
+        <v>215.293</v>
       </c>
       <c r="W4" t="n">
-        <v>47.746</v>
+        <v>2.808</v>
       </c>
       <c r="X4" t="n">
-        <v>10.283</v>
+        <v>29.422</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.16</v>
+        <v>0.071</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>11.1</v>
+        <v>34.5</v>
       </c>
       <c r="E5" t="n">
-        <v>12306.656</v>
+        <v>110452.318</v>
       </c>
       <c r="F5" t="n">
-        <v>208.404</v>
+        <v>305.278</v>
       </c>
       <c r="G5" t="n">
-        <v>205.772</v>
+        <v>315.733</v>
       </c>
       <c r="H5" t="n">
-        <v>467.651</v>
+        <v>27.459</v>
       </c>
       <c r="I5" t="n">
-        <v>15.522</v>
+        <v>18.822</v>
       </c>
       <c r="J5" t="n">
-        <v>99.452</v>
+        <v>9.332</v>
       </c>
       <c r="K5" t="n">
-        <v>0.211</v>
+        <v>0.479</v>
       </c>
       <c r="L5" t="n">
-        <v>12601.589</v>
+        <v>117710.229</v>
       </c>
       <c r="M5" t="n">
-        <v>227.884</v>
+        <v>288.49</v>
       </c>
       <c r="N5" t="n">
-        <v>106.824</v>
+        <v>279.906</v>
       </c>
       <c r="O5" t="n">
-        <v>391.766</v>
+        <v>19.797</v>
       </c>
       <c r="P5" t="n">
-        <v>15.598</v>
+        <v>17.859</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.808</v>
+        <v>7.634</v>
       </c>
       <c r="R5" t="n">
-        <v>0.25</v>
+        <v>0.505</v>
       </c>
       <c r="S5" t="n">
-        <v>7382.222</v>
+        <v>21627.218</v>
       </c>
       <c r="T5" t="n">
-        <v>52.856</v>
+        <v>69.95</v>
       </c>
       <c r="U5" t="n">
-        <v>198.361</v>
+        <v>86.88</v>
       </c>
       <c r="V5" t="n">
-        <v>215.293</v>
+        <v>13.756</v>
       </c>
       <c r="W5" t="n">
-        <v>2.808</v>
+        <v>4.337</v>
       </c>
       <c r="X5" t="n">
-        <v>29.422</v>
+        <v>4.187</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.071</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="6">
@@ -814,76 +814,76 @@
         <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>34.5</v>
+        <v>48.3</v>
       </c>
       <c r="E6" t="n">
-        <v>110452.318</v>
+        <v>23936.879</v>
       </c>
       <c r="F6" t="n">
-        <v>305.278</v>
+        <v>6843.513</v>
       </c>
       <c r="G6" t="n">
-        <v>315.733</v>
+        <v>423.481</v>
       </c>
       <c r="H6" t="n">
-        <v>27.459</v>
+        <v>179.325</v>
       </c>
       <c r="I6" t="n">
-        <v>18.822</v>
+        <v>177.809</v>
       </c>
       <c r="J6" t="n">
-        <v>9.332</v>
+        <v>34.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.479</v>
+        <v>5.327</v>
       </c>
       <c r="L6" t="n">
-        <v>117710.229</v>
+        <v>16781.135</v>
       </c>
       <c r="M6" t="n">
-        <v>288.49</v>
+        <v>7496.46</v>
       </c>
       <c r="N6" t="n">
-        <v>279.906</v>
+        <v>345.057</v>
       </c>
       <c r="O6" t="n">
-        <v>19.797</v>
+        <v>154.624</v>
       </c>
       <c r="P6" t="n">
-        <v>17.859</v>
+        <v>175.608</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.634</v>
+        <v>33.575</v>
       </c>
       <c r="R6" t="n">
-        <v>0.505</v>
+        <v>6.147</v>
       </c>
       <c r="S6" t="n">
-        <v>21627.218</v>
+        <v>16241.445</v>
       </c>
       <c r="T6" t="n">
-        <v>69.95</v>
+        <v>4475.689</v>
       </c>
       <c r="U6" t="n">
-        <v>86.88</v>
+        <v>268.038</v>
       </c>
       <c r="V6" t="n">
-        <v>13.756</v>
+        <v>123.838</v>
       </c>
       <c r="W6" t="n">
-        <v>4.337</v>
+        <v>127.96</v>
       </c>
       <c r="X6" t="n">
-        <v>4.187</v>
+        <v>20.244</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.107</v>
+        <v>3.384</v>
       </c>
     </row>
     <row r="7">
@@ -891,152 +891,75 @@
         <v>26</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>48.3</v>
+        <v>17.2</v>
       </c>
       <c r="E7" t="n">
-        <v>23936.879</v>
+        <v>19128.34</v>
       </c>
       <c r="F7" t="n">
-        <v>6843.513</v>
+        <v>266.372</v>
       </c>
       <c r="G7" t="n">
-        <v>423.481</v>
+        <v>249.043</v>
       </c>
       <c r="H7" t="n">
-        <v>179.325</v>
+        <v>75.325</v>
       </c>
       <c r="I7" t="n">
-        <v>177.809</v>
+        <v>18.2</v>
       </c>
       <c r="J7" t="n">
-        <v>34.8</v>
+        <v>26.708</v>
       </c>
       <c r="K7" t="n">
-        <v>5.327</v>
+        <v>0.399</v>
       </c>
       <c r="L7" t="n">
-        <v>16781.135</v>
+        <v>6676.001</v>
       </c>
       <c r="M7" t="n">
-        <v>7496.46</v>
+        <v>209.627</v>
       </c>
       <c r="N7" t="n">
-        <v>345.057</v>
+        <v>326.674</v>
       </c>
       <c r="O7" t="n">
-        <v>154.624</v>
+        <v>67.169</v>
       </c>
       <c r="P7" t="n">
-        <v>175.608</v>
+        <v>19.73</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.575</v>
+        <v>28.549</v>
       </c>
       <c r="R7" t="n">
-        <v>6.147</v>
+        <v>0.435</v>
       </c>
       <c r="S7" t="n">
-        <v>16241.445</v>
+        <v>24845.357</v>
       </c>
       <c r="T7" t="n">
-        <v>4475.689</v>
+        <v>202.103</v>
       </c>
       <c r="U7" t="n">
-        <v>268.038</v>
+        <v>179.514</v>
       </c>
       <c r="V7" t="n">
-        <v>123.838</v>
+        <v>41.895</v>
       </c>
       <c r="W7" t="n">
-        <v>127.96</v>
+        <v>5.048</v>
       </c>
       <c r="X7" t="n">
-        <v>20.244</v>
+        <v>13.213</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.384</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>19128.34</v>
-      </c>
-      <c r="F8" t="n">
-        <v>266.372</v>
-      </c>
-      <c r="G8" t="n">
-        <v>249.043</v>
-      </c>
-      <c r="H8" t="n">
-        <v>75.325</v>
-      </c>
-      <c r="I8" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>26.708</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.399</v>
-      </c>
-      <c r="L8" t="n">
-        <v>6676.001</v>
-      </c>
-      <c r="M8" t="n">
-        <v>209.627</v>
-      </c>
-      <c r="N8" t="n">
-        <v>326.674</v>
-      </c>
-      <c r="O8" t="n">
-        <v>67.169</v>
-      </c>
-      <c r="P8" t="n">
-        <v>19.73</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>28.549</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.435</v>
-      </c>
-      <c r="S8" t="n">
-        <v>24845.357</v>
-      </c>
-      <c r="T8" t="n">
-        <v>202.103</v>
-      </c>
-      <c r="U8" t="n">
-        <v>179.514</v>
-      </c>
-      <c r="V8" t="n">
-        <v>41.895</v>
-      </c>
-      <c r="W8" t="n">
-        <v>5.048</v>
-      </c>
-      <c r="X8" t="n">
-        <v>13.213</v>
-      </c>
-      <c r="Y8" t="n">
         <v>0.233</v>
       </c>
     </row>
